--- a/Assignments/Assignment-4/Source_data_for_CFR_vaccine_map - Sheet1.xlsx
+++ b/Assignments/Assignment-4/Source_data_for_CFR_vaccine_map - Sheet1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="2383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="2382">
   <si>
     <t>Category</t>
   </si>
@@ -6503,9 +6503,6 @@
   </si>
   <si>
     <t>48.379433</t>
-  </si>
-  <si>
-    <t>31.165579999999977</t>
   </si>
   <si>
     <t>14.05832</t>
@@ -7480,24 +7477,24 @@
   <dimension ref="A1:AA1398"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A1235" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C1256" activeCellId="0" sqref="C1256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="27" min="15" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.1683673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="27" min="15" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26817,15 +26814,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1256" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1256" s="1" t="s">
         <v>2161</v>
       </c>
-      <c r="C1256" s="1" t="s">
-        <v>2162</v>
+      <c r="C1256" s="1" t="n">
+        <v>31.16558</v>
       </c>
       <c r="D1256" s="1" t="n">
         <v>2</v>
@@ -26842,10 +26839,10 @@
         <v>21</v>
       </c>
       <c r="B1258" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1258" s="1" t="s">
         <v>2163</v>
-      </c>
-      <c r="C1258" s="1" t="s">
-        <v>2164</v>
       </c>
       <c r="D1258" s="1" t="n">
         <v>3300</v>
@@ -26856,10 +26853,10 @@
         <v>21</v>
       </c>
       <c r="B1259" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1259" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="C1259" s="1" t="s">
-        <v>2166</v>
       </c>
       <c r="D1259" s="1" t="n">
         <v>1</v>
@@ -26870,10 +26867,10 @@
         <v>127</v>
       </c>
       <c r="B1260" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1260" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="C1260" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="D1260" s="1" t="n">
         <v>50</v>
@@ -26884,10 +26881,10 @@
         <v>21</v>
       </c>
       <c r="B1261" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1261" s="1" t="s">
         <v>2163</v>
-      </c>
-      <c r="C1261" s="1" t="s">
-        <v>2164</v>
       </c>
       <c r="D1261" s="1" t="n">
         <v>3688</v>
@@ -26898,10 +26895,10 @@
         <v>170</v>
       </c>
       <c r="B1262" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1262" s="1" t="s">
         <v>2169</v>
-      </c>
-      <c r="C1262" s="1" t="s">
-        <v>2170</v>
       </c>
       <c r="D1262" s="1" t="n">
         <v>29</v>
@@ -26912,10 +26909,10 @@
         <v>21</v>
       </c>
       <c r="B1263" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C1263" s="1" t="s">
         <v>2171</v>
-      </c>
-      <c r="C1263" s="1" t="s">
-        <v>2172</v>
       </c>
       <c r="D1263" s="1" t="n">
         <v>888</v>
@@ -26926,10 +26923,10 @@
         <v>21</v>
       </c>
       <c r="B1264" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C1264" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="C1264" s="1" t="s">
-        <v>2174</v>
       </c>
       <c r="D1264" s="1" t="n">
         <v>157</v>
@@ -26940,10 +26937,10 @@
         <v>21</v>
       </c>
       <c r="B1265" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C1265" s="1" t="s">
         <v>2175</v>
-      </c>
-      <c r="C1265" s="1" t="s">
-        <v>2176</v>
       </c>
       <c r="D1265" s="1" t="n">
         <v>3800</v>
@@ -26954,10 +26951,10 @@
         <v>21</v>
       </c>
       <c r="B1266" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C1266" s="1" t="s">
         <v>2177</v>
-      </c>
-      <c r="C1266" s="1" t="s">
-        <v>2178</v>
       </c>
       <c r="D1266" s="1" t="n">
         <v>13324</v>
@@ -26968,10 +26965,10 @@
         <v>21</v>
       </c>
       <c r="B1267" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1267" s="1" t="s">
         <v>2179</v>
-      </c>
-      <c r="C1267" s="1" t="s">
-        <v>2180</v>
       </c>
       <c r="D1267" s="1" t="n">
         <v>10</v>
@@ -26982,10 +26979,10 @@
         <v>21</v>
       </c>
       <c r="B1268" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C1268" s="3" t="s">
         <v>2181</v>
-      </c>
-      <c r="C1268" s="3" t="s">
-        <v>2182</v>
       </c>
       <c r="D1268" s="3" t="n">
         <v>68</v>
@@ -27010,10 +27007,10 @@
         <v>21</v>
       </c>
       <c r="B1269" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1269" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="C1269" s="1" t="s">
-        <v>2184</v>
       </c>
       <c r="D1269" s="1" t="n">
         <v>15736</v>
@@ -27024,10 +27021,10 @@
         <v>21</v>
       </c>
       <c r="B1270" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1270" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="C1270" s="1" t="s">
-        <v>2184</v>
       </c>
       <c r="D1270" s="1" t="n">
         <v>26</v>
@@ -27038,10 +27035,10 @@
         <v>21</v>
       </c>
       <c r="B1271" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C1271" s="1" t="s">
         <v>2185</v>
-      </c>
-      <c r="C1271" s="1" t="s">
-        <v>2186</v>
       </c>
       <c r="D1271" s="1" t="n">
         <v>111</v>
@@ -27052,10 +27049,10 @@
         <v>21</v>
       </c>
       <c r="B1272" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1272" s="1" t="s">
         <v>2187</v>
-      </c>
-      <c r="C1272" s="1" t="s">
-        <v>2188</v>
       </c>
       <c r="D1272" s="1" t="n">
         <v>6</v>
@@ -27066,10 +27063,10 @@
         <v>21</v>
       </c>
       <c r="B1273" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C1273" s="1" t="s">
         <v>2189</v>
-      </c>
-      <c r="C1273" s="1" t="s">
-        <v>2190</v>
       </c>
       <c r="D1273" s="1" t="n">
         <v>53</v>
@@ -27080,10 +27077,10 @@
         <v>223</v>
       </c>
       <c r="B1274" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1274" s="1" t="s">
         <v>2191</v>
-      </c>
-      <c r="C1274" s="1" t="s">
-        <v>2192</v>
       </c>
       <c r="D1274" s="1" t="n">
         <v>2094</v>
@@ -27094,10 +27091,10 @@
         <v>223</v>
       </c>
       <c r="B1275" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C1275" s="1" t="s">
         <v>2193</v>
-      </c>
-      <c r="C1275" s="1" t="s">
-        <v>2194</v>
       </c>
       <c r="D1275" s="1" t="n">
         <v>204</v>
@@ -27108,10 +27105,10 @@
         <v>21</v>
       </c>
       <c r="B1276" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C1276" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="C1276" s="1" t="s">
-        <v>2196</v>
       </c>
       <c r="D1276" s="1" t="n">
         <v>8173</v>
@@ -27122,10 +27119,10 @@
         <v>21</v>
       </c>
       <c r="B1277" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C1277" s="1" t="s">
         <v>2197</v>
-      </c>
-      <c r="C1277" s="1" t="s">
-        <v>2198</v>
       </c>
       <c r="D1277" s="1" t="n">
         <v>154</v>
@@ -27136,10 +27133,10 @@
         <v>21</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C1278" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="C1278" s="1" t="s">
-        <v>2200</v>
       </c>
       <c r="D1278" s="1" t="n">
         <v>9993</v>
@@ -27150,10 +27147,10 @@
         <v>21</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C1279" s="1" t="s">
         <v>2201</v>
-      </c>
-      <c r="C1279" s="1" t="s">
-        <v>2202</v>
       </c>
       <c r="D1279" s="1" t="n">
         <v>524</v>
@@ -27164,10 +27161,10 @@
         <v>21</v>
       </c>
       <c r="B1280" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1280" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="C1280" s="1" t="s">
-        <v>2204</v>
       </c>
       <c r="D1280" s="1" t="n">
         <v>2</v>
@@ -27178,10 +27175,10 @@
         <v>21</v>
       </c>
       <c r="B1281" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C1281" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="C1281" s="1" t="s">
-        <v>2206</v>
       </c>
       <c r="D1281" s="1" t="n">
         <v>70</v>
@@ -27192,10 +27189,10 @@
         <v>223</v>
       </c>
       <c r="B1282" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C1282" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D1282" s="1" t="n">
         <v>207</v>
@@ -27206,10 +27203,10 @@
         <v>223</v>
       </c>
       <c r="B1283" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1283" s="1" t="s">
         <v>2208</v>
-      </c>
-      <c r="C1283" s="1" t="s">
-        <v>2209</v>
       </c>
       <c r="D1283" s="1" t="n">
         <v>3000</v>
@@ -27220,10 +27217,10 @@
         <v>223</v>
       </c>
       <c r="B1284" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C1284" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="C1284" s="1" t="s">
-        <v>2211</v>
       </c>
       <c r="D1284" s="1" t="s">
         <v>444</v>
@@ -27231,13 +27228,13 @@
     </row>
     <row r="1285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1285" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1285" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="B1285" s="1" t="s">
+      <c r="C1285" s="1" t="s">
         <v>2213</v>
-      </c>
-      <c r="C1285" s="1" t="s">
-        <v>2214</v>
       </c>
       <c r="D1285" s="1" t="n">
         <v>0</v>
@@ -27245,13 +27242,13 @@
     </row>
     <row r="1286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1286" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1286" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1286" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="C1286" s="1" t="s">
-        <v>2216</v>
       </c>
       <c r="D1286" s="1" t="n">
         <v>3</v>
@@ -27259,13 +27256,13 @@
     </row>
     <row r="1287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1287" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1287" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C1287" s="1" t="s">
         <v>2217</v>
-      </c>
-      <c r="C1287" s="1" t="s">
-        <v>2218</v>
       </c>
       <c r="D1287" s="1" t="n">
         <v>0</v>
@@ -27273,13 +27270,13 @@
     </row>
     <row r="1288" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1288" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C1288" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="C1288" s="1" t="s">
-        <v>2220</v>
       </c>
       <c r="D1288" s="1" t="n">
         <v>0</v>
@@ -27287,13 +27284,13 @@
     </row>
     <row r="1289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1289" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1289" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C1289" s="1" t="s">
         <v>2221</v>
-      </c>
-      <c r="C1289" s="1" t="s">
-        <v>2222</v>
       </c>
       <c r="D1289" s="1" t="n">
         <v>0</v>
@@ -27301,13 +27298,13 @@
     </row>
     <row r="1290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1290" s="1" t="s">
         <v>677</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D1290" s="1" t="n">
         <v>0</v>
@@ -27315,13 +27312,13 @@
     </row>
     <row r="1291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1291" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1291" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C1291" s="1" t="s">
         <v>2224</v>
-      </c>
-      <c r="C1291" s="1" t="s">
-        <v>2225</v>
       </c>
       <c r="D1291" s="1" t="n">
         <v>0</v>
@@ -27329,13 +27326,13 @@
     </row>
     <row r="1292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1292" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1292" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C1292" s="1" t="s">
         <v>2226</v>
-      </c>
-      <c r="C1292" s="1" t="s">
-        <v>2227</v>
       </c>
       <c r="D1292" s="1" t="n">
         <v>0</v>
@@ -27343,13 +27340,13 @@
     </row>
     <row r="1293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1293" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1293" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C1293" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="C1293" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="D1293" s="1" t="n">
         <v>0</v>
@@ -27357,13 +27354,13 @@
     </row>
     <row r="1294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1294" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1294" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C1294" s="1" t="s">
         <v>2230</v>
-      </c>
-      <c r="C1294" s="1" t="s">
-        <v>2231</v>
       </c>
       <c r="D1294" s="1" t="n">
         <v>0</v>
@@ -27371,13 +27368,13 @@
     </row>
     <row r="1295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1295" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1295" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C1295" s="1" t="s">
         <v>2232</v>
-      </c>
-      <c r="C1295" s="1" t="s">
-        <v>2233</v>
       </c>
       <c r="D1295" s="1" t="n">
         <v>0</v>
@@ -27385,13 +27382,13 @@
     </row>
     <row r="1296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1296" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1296" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C1296" s="1" t="s">
         <v>2234</v>
-      </c>
-      <c r="C1296" s="1" t="s">
-        <v>2235</v>
       </c>
       <c r="D1296" s="1" t="n">
         <v>0</v>
@@ -27399,13 +27396,13 @@
     </row>
     <row r="1297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1297" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1297" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C1297" s="1" t="s">
         <v>2236</v>
-      </c>
-      <c r="C1297" s="1" t="s">
-        <v>2237</v>
       </c>
       <c r="D1297" s="1" t="n">
         <v>0</v>
@@ -27413,10 +27410,10 @@
     </row>
     <row r="1298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1298" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1298" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C1298" s="1" t="s">
         <v>1018</v>
@@ -27427,10 +27424,10 @@
     </row>
     <row r="1299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1299" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C1299" s="1" t="s">
         <v>650</v>
@@ -27441,13 +27438,13 @@
     </row>
     <row r="1300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1300" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1300" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="C1300" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="D1300" s="1" t="n">
         <v>3</v>
@@ -27455,13 +27452,13 @@
     </row>
     <row r="1301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1301" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1301" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1301" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="C1301" s="1" t="s">
-        <v>2243</v>
       </c>
       <c r="D1301" s="1" t="n">
         <v>9</v>
@@ -27469,13 +27466,13 @@
     </row>
     <row r="1302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1302" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1302" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C1302" s="1" t="s">
         <v>2240</v>
-      </c>
-      <c r="C1302" s="1" t="s">
-        <v>2241</v>
       </c>
       <c r="D1302" s="1" t="n">
         <v>9</v>
@@ -27483,10 +27480,10 @@
     </row>
     <row r="1303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1303" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C1303" s="1" t="s">
         <v>1039</v>
@@ -27497,13 +27494,13 @@
     </row>
     <row r="1304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1304" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1304" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C1304" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="C1304" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="D1304" s="1" t="n">
         <v>0</v>
@@ -27511,13 +27508,13 @@
     </row>
     <row r="1305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1305" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1305" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C1305" s="1" t="s">
         <v>2247</v>
-      </c>
-      <c r="C1305" s="1" t="s">
-        <v>2248</v>
       </c>
       <c r="D1305" s="1" t="n">
         <v>0</v>
@@ -27525,13 +27522,13 @@
     </row>
     <row r="1306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1306" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1306" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C1306" s="1" t="s">
         <v>2249</v>
-      </c>
-      <c r="C1306" s="1" t="s">
-        <v>2250</v>
       </c>
       <c r="D1306" s="1" t="n">
         <v>0</v>
@@ -27539,13 +27536,13 @@
     </row>
     <row r="1307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1307" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D1307" s="1" t="n">
         <v>0</v>
@@ -27553,10 +27550,10 @@
     </row>
     <row r="1308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1308" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1308" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C1308" s="1" t="s">
         <v>1039</v>
@@ -27567,13 +27564,13 @@
     </row>
     <row r="1309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1309" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1309" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C1309" s="1" t="s">
         <v>2253</v>
-      </c>
-      <c r="C1309" s="1" t="s">
-        <v>2254</v>
       </c>
       <c r="D1309" s="1" t="n">
         <v>0</v>
@@ -27581,13 +27578,13 @@
     </row>
     <row r="1310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1310" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1310" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1310" s="1" t="s">
         <v>2255</v>
-      </c>
-      <c r="C1310" s="1" t="s">
-        <v>2256</v>
       </c>
       <c r="D1310" s="1" t="n">
         <v>0</v>
@@ -27595,13 +27592,13 @@
     </row>
     <row r="1311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1311" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1311" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1311" s="1" t="s">
         <v>2257</v>
-      </c>
-      <c r="C1311" s="1" t="s">
-        <v>2258</v>
       </c>
       <c r="D1311" s="1" t="n">
         <v>0</v>
@@ -27609,13 +27606,13 @@
     </row>
     <row r="1312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1312" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1312" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1312" s="1" t="s">
         <v>2259</v>
-      </c>
-      <c r="C1312" s="1" t="s">
-        <v>2260</v>
       </c>
       <c r="D1312" s="1" t="n">
         <v>0</v>
@@ -27623,13 +27620,13 @@
     </row>
     <row r="1313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1313" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1313" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C1313" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="C1313" s="1" t="s">
-        <v>2262</v>
       </c>
       <c r="D1313" s="1" t="n">
         <v>0</v>
@@ -27637,13 +27634,13 @@
     </row>
     <row r="1314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1314" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1314" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C1314" s="1" t="s">
         <v>2263</v>
-      </c>
-      <c r="C1314" s="1" t="s">
-        <v>2264</v>
       </c>
       <c r="D1314" s="1" t="n">
         <v>0</v>
@@ -27651,13 +27648,13 @@
     </row>
     <row r="1315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1315" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1315" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C1315" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="C1315" s="1" t="s">
-        <v>2266</v>
       </c>
       <c r="D1315" s="1" t="n">
         <v>0</v>
@@ -27665,7 +27662,7 @@
     </row>
     <row r="1316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1316" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1316" s="1" t="s">
         <v>486</v>
@@ -27679,13 +27676,13 @@
     </row>
     <row r="1317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1317" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1317" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C1317" s="1" t="s">
         <v>2267</v>
-      </c>
-      <c r="C1317" s="1" t="s">
-        <v>2268</v>
       </c>
       <c r="D1317" s="1" t="n">
         <v>0</v>
@@ -27693,13 +27690,13 @@
     </row>
     <row r="1318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1318" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C1318" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D1318" s="1" t="n">
         <v>0</v>
@@ -27707,13 +27704,13 @@
     </row>
     <row r="1319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1319" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1319" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1319" s="1" t="n">
         <v>0</v>
@@ -27721,13 +27718,13 @@
     </row>
     <row r="1320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1320" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1320" s="1" t="s">
         <v>486</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D1320" s="1" t="n">
         <v>0</v>
@@ -27735,13 +27732,13 @@
     </row>
     <row r="1321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1321" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1321" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C1321" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D1321" s="1" t="n">
         <v>0</v>
@@ -27749,13 +27746,13 @@
     </row>
     <row r="1322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1322" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1322" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D1322" s="1" t="n">
         <v>0</v>
@@ -27763,10 +27760,10 @@
     </row>
     <row r="1323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1323" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C1323" s="1" t="s">
         <v>1039</v>
@@ -27777,13 +27774,13 @@
     </row>
     <row r="1324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1324" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1324" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D1324" s="1" t="n">
         <v>0</v>
@@ -27791,13 +27788,13 @@
     </row>
     <row r="1325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1325" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C1325" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D1325" s="1" t="n">
         <v>0</v>
@@ -27805,13 +27802,13 @@
     </row>
     <row r="1326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1326" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C1326" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D1326" s="1" t="n">
         <v>0</v>
@@ -27819,13 +27816,13 @@
     </row>
     <row r="1327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1327" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1327" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1327" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="C1327" s="1" t="s">
-        <v>2274</v>
       </c>
       <c r="D1327" s="1" t="n">
         <v>0</v>
@@ -27833,7 +27830,7 @@
     </row>
     <row r="1328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1328" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1328" s="1" t="s">
         <v>1047</v>
@@ -27847,7 +27844,7 @@
     </row>
     <row r="1329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1329" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1329" s="1" t="s">
         <v>1103</v>
@@ -27861,13 +27858,13 @@
     </row>
     <row r="1330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1330" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1330" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1330" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="C1330" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="D1330" s="1" t="n">
         <v>0</v>
@@ -27875,13 +27872,13 @@
     </row>
     <row r="1331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1331" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1331" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="C1331" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="D1331" s="1" t="n">
         <v>0</v>
@@ -27889,13 +27886,13 @@
     </row>
     <row r="1332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1332" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C1332" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="C1332" s="1" t="s">
-        <v>2280</v>
       </c>
       <c r="D1332" s="1" t="n">
         <v>0</v>
@@ -27903,13 +27900,13 @@
     </row>
     <row r="1333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1333" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1333" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1333" s="1" t="s">
         <v>2281</v>
-      </c>
-      <c r="C1333" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="D1333" s="1" t="n">
         <v>0</v>
@@ -27917,13 +27914,13 @@
     </row>
     <row r="1334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1334" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1334" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1334" s="1" t="s">
         <v>2283</v>
-      </c>
-      <c r="C1334" s="1" t="s">
-        <v>2284</v>
       </c>
       <c r="D1334" s="1" t="n">
         <v>0</v>
@@ -27931,13 +27928,13 @@
     </row>
     <row r="1335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1335" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1335" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C1335" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="C1335" s="1" t="s">
-        <v>2286</v>
       </c>
       <c r="D1335" s="1" t="n">
         <v>2</v>
@@ -27945,13 +27942,13 @@
     </row>
     <row r="1336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1336" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1336" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C1336" s="1" t="s">
         <v>2287</v>
-      </c>
-      <c r="C1336" s="1" t="s">
-        <v>2288</v>
       </c>
       <c r="D1336" s="1" t="n">
         <v>1</v>
@@ -27959,13 +27956,13 @@
     </row>
     <row r="1337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1337" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1337" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C1337" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="C1337" s="1" t="s">
-        <v>2290</v>
       </c>
       <c r="D1337" s="1" t="n">
         <v>1</v>
@@ -27973,13 +27970,13 @@
     </row>
     <row r="1338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1338" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C1338" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D1338" s="1" t="n">
         <v>2</v>
@@ -27987,13 +27984,13 @@
     </row>
     <row r="1339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1339" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1339" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C1339" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="C1339" s="1" t="s">
-        <v>2293</v>
       </c>
       <c r="D1339" s="1" t="n">
         <v>11</v>
@@ -28001,13 +27998,13 @@
     </row>
     <row r="1340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1340" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1340" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C1340" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="C1340" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="D1340" s="1" t="n">
         <v>7</v>
@@ -28015,13 +28012,13 @@
     </row>
     <row r="1341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1341" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1341" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C1341" s="1" t="s">
         <v>2296</v>
-      </c>
-      <c r="C1341" s="1" t="s">
-        <v>2297</v>
       </c>
       <c r="D1341" s="1" t="n">
         <v>2</v>
@@ -28029,13 +28026,13 @@
     </row>
     <row r="1342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1342" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1342" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C1342" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="C1342" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="D1342" s="1" t="n">
         <v>1</v>
@@ -28043,13 +28040,13 @@
     </row>
     <row r="1343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1343" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1343" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1343" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="C1343" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="D1343" s="1" t="n">
         <v>1</v>
@@ -28057,13 +28054,13 @@
     </row>
     <row r="1344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1344" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1344" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C1344" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D1344" s="1" t="n">
         <v>2</v>
@@ -28071,13 +28068,13 @@
     </row>
     <row r="1345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1345" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1345" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C1345" s="1" t="s">
         <v>2303</v>
-      </c>
-      <c r="C1345" s="1" t="s">
-        <v>2304</v>
       </c>
       <c r="D1345" s="1" t="n">
         <v>3</v>
@@ -28085,13 +28082,13 @@
     </row>
     <row r="1346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1346" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1346" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1346" s="1" t="s">
         <v>2305</v>
-      </c>
-      <c r="C1346" s="1" t="s">
-        <v>2306</v>
       </c>
       <c r="D1346" s="1" t="n">
         <v>2</v>
@@ -28099,13 +28096,13 @@
     </row>
     <row r="1347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1347" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1347" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1347" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="C1347" s="1" t="s">
-        <v>2308</v>
       </c>
       <c r="D1347" s="1" t="n">
         <v>1</v>
@@ -28113,13 +28110,13 @@
     </row>
     <row r="1348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1348" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1348" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1348" s="1" t="s">
         <v>2309</v>
-      </c>
-      <c r="C1348" s="1" t="s">
-        <v>2310</v>
       </c>
       <c r="D1348" s="1" t="n">
         <v>1</v>
@@ -28127,13 +28124,13 @@
     </row>
     <row r="1349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1349" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1349" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="C1349" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="D1349" s="1" t="n">
         <v>20</v>
@@ -28141,13 +28138,13 @@
     </row>
     <row r="1350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1350" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1350" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C1350" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="C1350" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="D1350" s="1" t="n">
         <v>3</v>
@@ -28155,13 +28152,13 @@
     </row>
     <row r="1351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1351" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1351" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C1351" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="C1351" s="1" t="s">
-        <v>2316</v>
       </c>
       <c r="D1351" s="1" t="n">
         <v>3</v>
@@ -28169,13 +28166,13 @@
     </row>
     <row r="1352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1352" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C1352" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D1352" s="1" t="n">
         <v>9</v>
@@ -28183,13 +28180,13 @@
     </row>
     <row r="1353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1353" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1353" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1353" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="C1353" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="D1353" s="1" t="n">
         <v>3</v>
@@ -28197,13 +28194,13 @@
     </row>
     <row r="1354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1354" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C1354" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D1354" s="1" t="n">
         <v>2</v>
@@ -28211,13 +28208,13 @@
     </row>
     <row r="1355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1355" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C1355" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D1355" s="1" t="n">
         <v>24</v>
@@ -28225,13 +28222,13 @@
     </row>
     <row r="1356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1356" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1356" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1356" s="1" t="s">
         <v>2320</v>
-      </c>
-      <c r="C1356" s="1" t="s">
-        <v>2321</v>
       </c>
       <c r="D1356" s="1" t="n">
         <v>9</v>
@@ -28239,13 +28236,13 @@
     </row>
     <row r="1357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1357" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1357" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1357" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="C1357" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="D1357" s="1" t="n">
         <v>2</v>
@@ -28253,13 +28250,13 @@
     </row>
     <row r="1358" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1358" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1358" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1358" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="C1358" s="1" t="s">
-        <v>2325</v>
       </c>
       <c r="D1358" s="1" t="n">
         <v>1</v>
@@ -28267,13 +28264,13 @@
     </row>
     <row r="1359" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1359" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1359" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C1359" s="1" t="s">
         <v>2326</v>
-      </c>
-      <c r="C1359" s="1" t="s">
-        <v>2327</v>
       </c>
       <c r="D1359" s="1" t="n">
         <v>2</v>
@@ -28281,13 +28278,13 @@
     </row>
     <row r="1360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1360" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1360" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C1360" s="1" t="s">
         <v>2328</v>
-      </c>
-      <c r="C1360" s="1" t="s">
-        <v>2329</v>
       </c>
       <c r="D1360" s="1" t="n">
         <v>1</v>
@@ -28295,13 +28292,13 @@
     </row>
     <row r="1361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1361" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1361" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C1361" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="C1361" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="D1361" s="1" t="n">
         <v>1</v>
@@ -28309,13 +28306,13 @@
     </row>
     <row r="1362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1362" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C1362" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D1362" s="1" t="n">
         <v>1</v>
@@ -28323,13 +28320,13 @@
     </row>
     <row r="1363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1363" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1363" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C1363" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="C1363" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="D1363" s="1" t="n">
         <v>4</v>
@@ -28337,13 +28334,13 @@
     </row>
     <row r="1364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1364" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1364" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1364" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="C1364" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="D1364" s="1" t="n">
         <v>3</v>
@@ -28351,13 +28348,13 @@
     </row>
     <row r="1365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1365" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1365" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1365" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="C1365" s="1" t="s">
-        <v>2338</v>
       </c>
       <c r="D1365" s="1" t="n">
         <v>6</v>
@@ -28365,13 +28362,13 @@
     </row>
     <row r="1366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1366" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1366" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D1366" s="1" t="n">
         <v>7</v>
@@ -28379,13 +28376,13 @@
     </row>
     <row r="1367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1367" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1367" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1367" s="1" t="s">
         <v>2339</v>
-      </c>
-      <c r="C1367" s="1" t="s">
-        <v>2340</v>
       </c>
       <c r="D1367" s="1" t="n">
         <v>2</v>
@@ -28393,13 +28390,13 @@
     </row>
     <row r="1368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1368" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1368" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C1368" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="C1368" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="D1368" s="1" t="n">
         <v>1</v>
@@ -28407,13 +28404,13 @@
     </row>
     <row r="1369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1369" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1369" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1369" s="1" t="s">
         <v>2283</v>
-      </c>
-      <c r="C1369" s="1" t="s">
-        <v>2284</v>
       </c>
       <c r="D1369" s="1" t="n">
         <v>2</v>
@@ -28421,13 +28418,13 @@
     </row>
     <row r="1370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1370" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1370" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C1370" s="1" t="s">
         <v>2343</v>
-      </c>
-      <c r="C1370" s="1" t="s">
-        <v>2344</v>
       </c>
       <c r="D1370" s="1" t="n">
         <v>4</v>
@@ -28435,7 +28432,7 @@
     </row>
     <row r="1371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1371" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1371" s="1" t="s">
         <v>1051</v>
@@ -28449,13 +28446,13 @@
     </row>
     <row r="1372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1372" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1372" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1372" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="C1372" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="D1372" s="1" t="n">
         <v>1</v>
@@ -28463,13 +28460,13 @@
     </row>
     <row r="1373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1373" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1373" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C1373" s="1" t="s">
         <v>2347</v>
-      </c>
-      <c r="C1373" s="1" t="s">
-        <v>2348</v>
       </c>
       <c r="D1373" s="1" t="n">
         <v>0</v>
@@ -28477,13 +28474,13 @@
     </row>
     <row r="1374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1374" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1374" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C1374" s="1" t="s">
         <v>2349</v>
-      </c>
-      <c r="C1374" s="1" t="s">
-        <v>2350</v>
       </c>
       <c r="D1374" s="1" t="n">
         <v>3</v>
@@ -28491,13 +28488,13 @@
     </row>
     <row r="1375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1375" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1375" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C1375" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="C1375" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="D1375" s="1" t="n">
         <v>2</v>
@@ -28505,13 +28502,13 @@
     </row>
     <row r="1376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1376" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1376" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C1376" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="C1376" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="D1376" s="1" t="n">
         <v>2</v>
@@ -28519,13 +28516,13 @@
     </row>
     <row r="1377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1377" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1377" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C1377" s="1" t="s">
         <v>2283</v>
-      </c>
-      <c r="C1377" s="1" t="s">
-        <v>2284</v>
       </c>
       <c r="D1377" s="1" t="n">
         <v>0</v>
@@ -28533,13 +28530,13 @@
     </row>
     <row r="1378" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1378" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1378" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C1378" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="C1378" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="D1378" s="1" t="n">
         <v>0</v>
@@ -28547,13 +28544,13 @@
     </row>
     <row r="1379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1379" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1379" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C1379" s="1" t="s">
         <v>2357</v>
-      </c>
-      <c r="C1379" s="1" t="s">
-        <v>2358</v>
       </c>
       <c r="D1379" s="1" t="n">
         <v>1</v>
@@ -28561,13 +28558,13 @@
     </row>
     <row r="1380" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1380" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1380" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C1380" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="C1380" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="D1380" s="1" t="n">
         <v>0</v>
@@ -28575,13 +28572,13 @@
     </row>
     <row r="1381" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1381" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1381" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C1381" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="C1381" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="D1381" s="1" t="n">
         <v>0</v>
@@ -28589,13 +28586,13 @@
     </row>
     <row r="1382" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1382" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1382" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="C1382" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D1382" s="1" t="n">
         <v>25000</v>
@@ -28603,7 +28600,7 @@
     </row>
     <row r="1383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1383" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1383" s="1" t="s">
         <v>1103</v>
@@ -28617,7 +28614,7 @@
     </row>
     <row r="1384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1384" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1384" s="1" t="s">
         <v>1103</v>
@@ -28631,13 +28628,13 @@
     </row>
     <row r="1385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1385" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1385" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1385" s="1" t="s">
         <v>2273</v>
-      </c>
-      <c r="C1385" s="1" t="s">
-        <v>2274</v>
       </c>
       <c r="D1385" s="1" t="n">
         <v>1</v>
@@ -28645,13 +28642,13 @@
     </row>
     <row r="1386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1386" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1386" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C1386" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="C1386" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="D1386" s="1" t="n">
         <v>0</v>
@@ -28659,13 +28656,13 @@
     </row>
     <row r="1387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1387" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1387" s="17" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1387" s="18" t="s">
         <v>2366</v>
-      </c>
-      <c r="C1387" s="18" t="s">
-        <v>2367</v>
       </c>
       <c r="D1387" s="1" t="n">
         <v>0</v>
@@ -28673,7 +28670,7 @@
     </row>
     <row r="1388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1388" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1388" s="17" t="s">
         <v>1098</v>
@@ -28687,7 +28684,7 @@
     </row>
     <row r="1389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1389" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1389" s="17" t="s">
         <v>1118</v>
@@ -28701,13 +28698,13 @@
     </row>
     <row r="1390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1390" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1390" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1390" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="C1390" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="D1390" s="1" t="n">
         <v>3</v>
@@ -28715,10 +28712,10 @@
     </row>
     <row r="1391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1391" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1391" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C1391" s="1"/>
       <c r="D1391" s="1" t="n">
@@ -28727,13 +28724,13 @@
     </row>
     <row r="1392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1392" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1392" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C1392" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="C1392" s="1" t="s">
-        <v>2372</v>
       </c>
       <c r="D1392" s="1" t="n">
         <v>1</v>
@@ -28741,13 +28738,13 @@
     </row>
     <row r="1393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1393" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1393" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C1393" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="C1393" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="D1393" s="1" t="n">
         <v>12</v>
@@ -28755,13 +28752,13 @@
     </row>
     <row r="1394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1394" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1394" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C1394" s="1" t="s">
         <v>2375</v>
-      </c>
-      <c r="C1394" s="1" t="s">
-        <v>2376</v>
       </c>
       <c r="D1394" s="1" t="n">
         <v>15</v>
@@ -28769,13 +28766,13 @@
     </row>
     <row r="1395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1395" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1395" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C1395" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="C1395" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="D1395" s="1" t="n">
         <v>4</v>
@@ -28783,13 +28780,13 @@
     </row>
     <row r="1396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1396" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1396" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C1396" s="1" t="s">
         <v>2379</v>
-      </c>
-      <c r="C1396" s="1" t="s">
-        <v>2380</v>
       </c>
       <c r="D1396" s="1" t="n">
         <v>0</v>
@@ -28797,13 +28794,13 @@
     </row>
     <row r="1397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1397" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1397" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1397" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="C1397" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="D1397" s="1" t="n">
         <v>9</v>
